--- a/Data Files/Input Validation/28. junctionname/Auto_JunctionName_C1.xlsx
+++ b/Data Files/Input Validation/28. junctionname/Auto_JunctionName_C1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\test gestamp\Data Files\Input Validation\28. juctionname\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E80F056-8F02-40C2-8EB9-8256D7BF522E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33738A3B-A23F-489D-8DF6-BFDE2FB466E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -228,13 +228,13 @@
     <t>AS9</t>
   </si>
   <si>
-    <t>2023-09-16</t>
-  </si>
-  <si>
     <t>HJU-ad35asd-s</t>
   </si>
   <si>
     <t>ทดสอบ</t>
+  </si>
+  <si>
+    <t>2023-10-01</t>
   </si>
 </sst>
 </file>
@@ -799,10 +799,10 @@
     </row>
     <row r="2" spans="1:50 16383:16384" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>45</v>
@@ -864,7 +864,7 @@
       </c>
       <c r="Z2" s="2"/>
       <c r="AC2" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2" t="s">

--- a/Data Files/Input Validation/28. junctionname/Auto_JunctionName_C1.xlsx
+++ b/Data Files/Input Validation/28. junctionname/Auto_JunctionName_C1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33738A3B-A23F-489D-8DF6-BFDE2FB466E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7553F133-CCDD-44D0-927A-2B17801F802F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2376" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -234,7 +234,7 @@
     <t>ทดสอบ</t>
   </si>
   <si>
-    <t>2023-10-01</t>
+    <t>2023-10-16</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Input Validation/28. junctionname/Auto_JunctionName_C1.xlsx
+++ b/Data Files/Input Validation/28. junctionname/Auto_JunctionName_C1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7553F133-CCDD-44D0-927A-2B17801F802F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B5D96B-21C9-4788-B26E-32348DCA3AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2376" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="71">
   <si>
     <t>contractNo</t>
   </si>
@@ -235,6 +235,9 @@
   </si>
   <si>
     <t>2023-10-16</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -602,7 +605,7 @@
   <dimension ref="A1:XFD996"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2"/>
+      <selection activeCell="AO2" sqref="AO2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -891,7 +894,7 @@
       <c r="AM2" s="2"/>
       <c r="AN2" s="2"/>
       <c r="AO2" s="3" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="AP2" s="2" t="s">
         <v>51</v>

--- a/Data Files/Input Validation/28. junctionname/Auto_JunctionName_C1.xlsx
+++ b/Data Files/Input Validation/28. junctionname/Auto_JunctionName_C1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B5D96B-21C9-4788-B26E-32348DCA3AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885462C6-E48F-4149-95F0-2E746BB7B3A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1464" yWindow="1464" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -234,10 +234,10 @@
     <t>ทดสอบ</t>
   </si>
   <si>
-    <t>2023-10-16</t>
+    <t/>
   </si>
   <si>
-    <t/>
+    <t>2023-11-01</t>
   </si>
 </sst>
 </file>
@@ -805,7 +805,7 @@
         <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>45</v>
@@ -894,7 +894,7 @@
       <c r="AM2" s="2"/>
       <c r="AN2" s="2"/>
       <c r="AO2" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AP2" s="2" t="s">
         <v>51</v>

--- a/Data Files/Input Validation/28. junctionname/Auto_JunctionName_C1.xlsx
+++ b/Data Files/Input Validation/28. junctionname/Auto_JunctionName_C1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C81C722-B9D8-4019-B825-73672CB62D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A062EA1-C8ED-4E4C-A663-B61D6D0BCDD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2835" yWindow="2010" windowWidth="11925" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6555" yWindow="2760" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -237,7 +237,7 @@
     <t/>
   </si>
   <si>
-    <t>2023-11-16</t>
+    <t>2024-01-02</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Input Validation/28. junctionname/Auto_JunctionName_C1.xlsx
+++ b/Data Files/Input Validation/28. junctionname/Auto_JunctionName_C1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A062EA1-C8ED-4E4C-A663-B61D6D0BCDD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF0B2B7-188C-4DF5-AC83-79AF8A755FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6555" yWindow="2760" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -237,7 +237,7 @@
     <t/>
   </si>
   <si>
-    <t>2024-01-02</t>
+    <t>2024-01-16</t>
   </si>
 </sst>
 </file>
@@ -305,9 +305,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -345,7 +345,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -451,7 +451,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -593,7 +593,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Data Files/Input Validation/28. junctionname/Auto_JunctionName_C1.xlsx
+++ b/Data Files/Input Validation/28. junctionname/Auto_JunctionName_C1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2743A4C7-F12F-4BC4-8A83-F9D1696449F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23EBCBAD-E803-44D6-B56A-AA531CCA79AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -237,7 +237,7 @@
     <t/>
   </si>
   <si>
-    <t>2024-02-16</t>
+    <t>2024-04-16</t>
   </si>
 </sst>
 </file>
@@ -305,9 +305,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -345,7 +345,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -451,7 +451,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -593,7 +593,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Data Files/Input Validation/28. junctionname/Auto_JunctionName_C1.xlsx
+++ b/Data Files/Input Validation/28. junctionname/Auto_JunctionName_C1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23EBCBAD-E803-44D6-B56A-AA531CCA79AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FEA7E96-FE0C-4888-88AD-CA54EEF57E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -237,7 +237,7 @@
     <t/>
   </si>
   <si>
-    <t>2024-04-16</t>
+    <t>2024-07-01</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Input Validation/28. junctionname/Auto_JunctionName_C1.xlsx
+++ b/Data Files/Input Validation/28. junctionname/Auto_JunctionName_C1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FEA7E96-FE0C-4888-88AD-CA54EEF57E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA03CA6-362D-436C-B016-122BA90FF1B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="7305" windowHeight="13260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -237,7 +237,7 @@
     <t/>
   </si>
   <si>
-    <t>2024-07-01</t>
+    <t>2024-08-16</t>
   </si>
 </sst>
 </file>
